--- a/P&E/Diagrama de Tallo y Hojas.xlsx
+++ b/P&E/Diagrama de Tallo y Hojas.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371C4E8E-765E-4DD9-8E37-1AE77830E2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3635D1-12F5-460F-96F6-47FA438CC0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="Datos" sheetId="1" r:id="rId2"/>
     <sheet name="TEMPORAL" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="ListaDatos">Datos!$G$2:$G$92</definedName>
   </definedNames>
@@ -36,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -335,18 +331,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,7 +352,18 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -377,18 +384,7 @@
       </font>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -629,7 +625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04901E6F-EA39-4B0E-9347-5838DB39141F}" type="CELLRANGE">
+                    <a:fld id="{28962749-64F3-4B4C-8C2E-1D8E203131C4}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -662,7 +658,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7569F7FE-86FF-4450-8DB3-05D7E42B04D0}" type="CELLRANGE">
+                    <a:fld id="{06A451C4-84D3-4920-BDA2-5D5528067BB1}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -695,7 +691,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE3CC6F0-AFF1-4BAD-A77B-4077306EFFFD}" type="CELLRANGE">
+                    <a:fld id="{9E445A6B-88AA-4238-8F8F-0AE17F19F38D}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -728,7 +724,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41DF5CB7-C1D3-4539-AD0A-78CB052926CD}" type="CELLRANGE">
+                    <a:fld id="{18E2751B-6428-45D6-9DA3-840AFF25654B}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -761,7 +757,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7FBF097-3196-4624-9810-77CA1F05679D}" type="CELLRANGE">
+                    <a:fld id="{22BB0D16-AAD7-4188-BE8F-C71544CC9AE8}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -794,7 +790,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07F20BD2-E133-43E8-95EE-51FEACFFB1C8}" type="CELLRANGE">
+                    <a:fld id="{42855D20-7B12-4679-876D-3E5E9680358B}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -827,7 +823,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4261F697-E780-4858-9D4C-D336D6065F39}" type="CELLRANGE">
+                    <a:fld id="{52F1E8BA-58E4-47E3-BB41-ACDB2BDFEECE}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -860,7 +856,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7356C1B8-F21B-4F9B-A7CE-8ADEB73E5516}" type="CELLRANGE">
+                    <a:fld id="{FD8464E0-A906-4B52-9CE7-44F23C7E1472}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -893,7 +889,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F571C20-B1B1-41E6-A43B-831797D68D72}" type="CELLRANGE">
+                    <a:fld id="{DFB58481-988A-47EC-866C-8D320B77ECDF}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -926,7 +922,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9DBAEFE-81D4-43E5-BDFB-4B3F366E3993}" type="CELLRANGE">
+                    <a:fld id="{22F946EF-F3E8-450D-8398-8E24A9B834AA}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -959,7 +955,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14D0480B-EE42-432B-BFEC-4E19EC2067BD}" type="CELLRANGE">
+                    <a:fld id="{10D853A4-E9C7-4275-9AEA-8C9A963C0705}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -992,7 +988,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD57768D-0D8F-4949-B293-B634F36D9392}" type="CELLRANGE">
+                    <a:fld id="{35B54FA1-7992-44D7-8838-8794C0A0749D}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1025,7 +1021,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{080D90F3-D2C5-42F7-917F-423F5E668FAB}" type="CELLRANGE">
+                    <a:fld id="{4563F7A9-ADDC-4C37-BC23-842F4BCB815B}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1058,7 +1054,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{924F7D20-6B72-4ABC-8780-6E829D4E8CF5}" type="CELLRANGE">
+                    <a:fld id="{C6FF0AA4-3C5E-4C42-8932-8078D9804FA8}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1091,7 +1087,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF14D860-2417-41A9-A168-DC6A7F3BDF05}" type="CELLRANGE">
+                    <a:fld id="{1969B287-9C40-482F-8016-BE172AB16CB6}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1124,7 +1120,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1958F130-2A57-411B-A7C7-5DA8BA00EFCF}" type="CELLRANGE">
+                    <a:fld id="{709E64FE-B109-48DD-9615-5D83F4978D5C}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1157,7 +1153,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6D0FC29-13AF-4A5E-BE53-5C3D575E145E}" type="CELLRANGE">
+                    <a:fld id="{367CC5CA-B9D4-4A8F-B935-46E1217F8F08}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1190,7 +1186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30DA27B5-6E2E-46DA-9413-7ACDE4B22EBD}" type="CELLRANGE">
+                    <a:fld id="{58C12469-B5DE-4D47-9FB1-DB858404DB7F}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1223,7 +1219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A6FF887-4391-43C9-8430-A096FDA1ADFA}" type="CELLRANGE">
+                    <a:fld id="{6691BBAC-4022-4B1A-8DBB-248CAF64AF5C}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1256,7 +1252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6DF8484-30BE-4103-84AD-09148A95F32E}" type="CELLRANGE">
+                    <a:fld id="{CD39AC57-7EB7-4955-9497-FB4969BDB3E8}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1289,7 +1285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86B34AF9-6D6A-4783-9E4D-1F1CE1DBA9FD}" type="CELLRANGE">
+                    <a:fld id="{C6801D9F-0220-4711-B1FD-7A6056EB3E03}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1322,7 +1318,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{580D49AD-B8BF-4BBE-BE97-094AFD575FEC}" type="CELLRANGE">
+                    <a:fld id="{B8811FD5-CC6C-4A4C-A2B9-1B7758B96FBC}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1355,7 +1351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69D38F43-F6F3-4655-AE48-A865EBA144F7}" type="CELLRANGE">
+                    <a:fld id="{62776D6B-7910-40D7-A7AE-9C0C6EDAAD83}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1388,7 +1384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F82CC8D-51BA-48C6-A108-9FB8D4EA7419}" type="CELLRANGE">
+                    <a:fld id="{B118A961-0C20-4369-A376-3B9C0137A46A}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2042,8 +2038,40 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EEEBD08-A2C5-4C65-BF80-8A51E81922A7}" type="CELLRANGE">
+                    <a:fld id="{CD420764-9BF4-4321-9093-201951860E2B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{81965F8C-F5B6-4C21-8357-D108F883FF6D}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2064,19 +2092,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000002-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="2"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13FD1C43-7F9D-4696-B242-EADDE29C80CA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CCAD0B74-8935-44AC-893E-7E0B084AE1AB}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2097,19 +2125,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000003-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="3"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A8D8557D-7144-4C8D-9ED2-0C01B0E24B91}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2F1B2D55-E8B0-4152-8844-CF868BA85EB7}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2130,19 +2158,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000004-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="4"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D732A4A3-66B6-47DD-AF81-971683999DCD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{30DD8C3B-0948-4A1C-BF12-E73401E9D733}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2163,19 +2191,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000005-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="5"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E52919AA-D760-4A4A-9E53-DE1433C61C22}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{86AFE2FE-C1D2-4941-BFF8-AB5ACD4FBB82}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2196,19 +2224,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000006-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="6"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5682916-A304-4FEA-8D72-BB583D60E85C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8A837103-64E5-4B0A-B2D2-59551BC1E191}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2229,19 +2257,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000007-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="7"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{141FAFF0-1A4F-418E-8B2B-876AADF810F5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8C5FFC4C-D4B1-4851-BC38-026443AE8322}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2262,19 +2290,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000008-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="8"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1065F54-0F1D-4233-A0FF-D1F03DFF3033}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{086A140C-C2E7-42B2-BD88-40AB4FBAEB96}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2295,19 +2323,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000009-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="9"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD6E99CA-2422-4411-9AA0-6553073D59F9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{FD867D77-BEA0-49EC-B1D6-CA0696EBF1FD}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2328,19 +2356,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000000A-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="10"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9836C517-BE26-4F53-8879-04449797D353}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E04C7BE8-8921-4E3B-BAA9-58D6612B4DAA}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2361,19 +2389,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000000B-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="11"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B86BBDA4-8208-42A0-B0E1-8F0A716FE690}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{26CD86EC-BC92-4107-BFBF-1654EF9DE512}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2394,19 +2422,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000000C-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="12"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81E5C6E6-3308-4502-BD5E-89556612E05D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9D7309B0-A136-4036-B323-80E0FB7BFAF0}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2427,19 +2455,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000000D-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="13"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22DE0335-C923-4E55-9D72-CDFB2901D614}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CF56EB11-4DFA-43C1-A2BD-911066056622}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2460,19 +2488,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000000E-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="14"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00F3999A-7F0C-43EB-B326-7B4C758B584B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8ED90EE4-FB2D-4BB3-8D8D-214D0C7EB044}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2493,19 +2521,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000000F-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="15"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2244EDED-4559-4945-9D2C-FADC477BE4CB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{740C1EAE-4B9A-4B8C-9193-0C71D567739B}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2526,19 +2554,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000010-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="16"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01577CB9-2D3E-44CF-BC16-0043D8E544BF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{58DB9633-0B1C-48B1-A469-CB9615F0A81C}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2559,19 +2587,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000011-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="17"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BF767C8-31A1-40C6-B743-739D11441FC3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8784AEB5-5FC5-4BCD-96E9-52874371FA78}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2592,19 +2620,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000012-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="18"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8D41FCE-DDEE-4D99-8606-F260425DE559}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8F7A3B56-95CB-4576-B0CC-932F5E2722A6}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2625,19 +2653,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000013-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="19"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF8D5545-C447-43CE-A5CD-642301EB12B6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{BB3145AA-8709-41F1-97E8-C5FF9C665D6D}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2658,19 +2686,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000014-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="20"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{696FA30D-5B3E-4319-9274-CD1E6B83D1A6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{3C93896C-4B1E-43F8-B42F-50293FAC0171}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2691,19 +2719,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000015-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="21"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27249FF4-E7EE-48A3-8059-3C403C74BEE1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{07AA5E7C-72F9-410A-BEDC-B21350091DCB}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2724,19 +2752,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000016-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="22"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69CE204E-6B47-4BCF-886E-26AA89A275A4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CB227B73-2E5B-45EE-9E23-F2949B19F8C3}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2757,19 +2785,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000017-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="23"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E911AB01-F9AB-406D-8A5C-162578890C53}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{3575D14F-8621-4AC8-8D03-E69761FA36BF}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2790,19 +2818,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000018-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="24"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B5EBFE9-33AC-42A8-9D53-3063CC0D5E8F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1AFD44A1-D281-4428-87BD-6620D641170E}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2823,19 +2851,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000019-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="25"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B805A4A-B3B6-4CDD-A438-E83CAD28F828}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{C9BD73E0-F7C7-4356-9386-E1C0DFEC09C5}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2856,19 +2884,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000001A-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="26"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4CFB4D6-E826-455C-9E25-89E8958DDC11}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{17E092DB-6065-402A-B1CB-2531966BBC04}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2889,19 +2917,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000001B-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="26"/>
+              <c:idx val="27"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81014DC5-1E84-4E4C-8A08-DE6843081DD2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{25011614-11E6-4249-B9C9-A54DD1B4A924}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2922,19 +2950,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000001C-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="27"/>
+              <c:idx val="28"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A4F0AAF-8D8E-4BB4-87C0-5604D444EA85}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E4D22168-13E2-454F-9239-0A0D5A986845}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2955,19 +2983,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000001D-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="28"/>
+              <c:idx val="29"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A381C85-2D38-4186-947D-B503640F3EA2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2183438D-BF69-413A-B467-3783DEBB3AB0}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2988,19 +3016,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000001E-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="29"/>
+              <c:idx val="30"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC9479DA-0ED4-42B3-8582-C267C3279281}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D6C4FC68-ADDC-47F6-AD4D-E857B5E84754}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3021,19 +3049,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000001F-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="30"/>
+              <c:idx val="31"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A8FA2DE-912E-47FF-9424-16865946AE21}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{C08A4C1D-3290-4344-9586-EB174120AD7F}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3054,19 +3082,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000020-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="31"/>
+              <c:idx val="32"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47E47046-B8BD-48A7-A04C-2533F730326A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{FC274450-4CAC-4069-855C-8B3309811E0B}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3087,19 +3115,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000021-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="32"/>
+              <c:idx val="33"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE85AA4C-C190-4F7A-9825-EA0BAA5CC972}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{15B37DB5-B483-4835-81FC-D8C48C660CB0}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3120,19 +3148,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000022-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="33"/>
+              <c:idx val="34"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD4DE721-62B9-45C5-B58F-9201DB439ED1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CC69728B-94FB-44E0-BA14-ABB0661F92C8}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3153,19 +3181,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000023-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="34"/>
+              <c:idx val="35"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23D3831B-3C48-4B8B-9A60-49DAEC094D6B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6A710174-B4ED-49DD-AEEC-71B3773E4655}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3186,19 +3214,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000024-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="35"/>
+              <c:idx val="36"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C855555-C944-466F-B765-0CCA5D25F91F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9CE7F382-A2AA-48FF-B48C-48CED9139F9B}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3219,19 +3247,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000025-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="36"/>
+              <c:idx val="37"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0D61FBE-F71E-4736-946D-6DDD5788F434}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{7242FC5B-AFA0-4E6D-8F6C-C3D0C8260D93}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3252,19 +3280,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000026-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="37"/>
+              <c:idx val="38"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E239F85F-298A-42D3-AB84-98CE6259B4CD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{50E1E2F2-5B3E-4FDB-9306-ADB7BACD5955}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3285,19 +3313,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000027-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="38"/>
+              <c:idx val="39"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2A44B40-5A0B-4C23-AE8D-D12F54D8A8E0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5FBE542F-346F-43C2-9E51-6B880EA6757A}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3318,19 +3346,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000028-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="39"/>
+              <c:idx val="40"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{011166F0-FC76-427F-A014-54B934973EB3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2E89D347-9B1A-4540-9142-F5457AE7D07F}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3351,19 +3379,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000029-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="40"/>
+              <c:idx val="41"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C47785EE-7764-49AF-82B9-C3B047B6094B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{26DCBB58-6108-4FFF-9915-4D387E6AD807}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3384,19 +3412,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000029-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000002A-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="41"/>
+              <c:idx val="42"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6BF6CEFE-C969-4E19-98E8-77D4AD2E82B9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{12AFB1FA-0ED1-472F-A222-BA5B74B35616}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3417,19 +3445,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002A-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000002B-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="42"/>
+              <c:idx val="43"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1BF9E38-9DDE-4BAC-A9AC-1AF69FE4AB25}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B57A85AF-4561-48DC-AD9D-81FB69DAFFB4}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3450,19 +3478,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002B-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000002C-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="43"/>
+              <c:idx val="44"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD9F3437-061C-45AA-BCC8-52E8C920B297}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{76550B6D-D5CE-403B-B22C-8EF112BEF240}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3483,19 +3511,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002C-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000002D-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="44"/>
+              <c:idx val="45"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EDD9349-2506-4B45-B9FF-12FB3A8F2876}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F0C047BF-4F3D-4F7F-813E-E2C1CE9A3FB8}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3516,19 +3544,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002D-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000002E-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="45"/>
+              <c:idx val="46"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69AD095C-6E92-4840-82B6-BB806C1F4208}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0605AD32-460D-4A18-93D2-ED9FA335A784}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3549,19 +3577,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002E-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000002F-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="46"/>
+              <c:idx val="47"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C42C9314-C96E-4928-A97A-BC4ADF2128D9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{653A2780-D7C3-4ED9-AF4E-33E67F19CCCC}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3582,19 +3610,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002F-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000030-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="47"/>
+              <c:idx val="48"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38D8AA46-D1DB-4EEE-A4D6-2F0EED75F72D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1C623CDC-1114-4A94-B084-B32C380F5445}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3615,19 +3643,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000031-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="48"/>
+              <c:idx val="49"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D65BC5AD-CA0B-49E5-B802-75C3B5A6AB60}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{02C7DD2C-C76C-4FA1-A39B-3FBAB68F79B2}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3648,19 +3676,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000032-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="49"/>
+              <c:idx val="50"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{027F81BD-2AA8-4344-9860-406176AF6F55}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{C8D13BA8-B7A0-46B6-A1E7-0EC50B5CCAD0}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3681,19 +3709,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000032-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000033-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="50"/>
+              <c:idx val="51"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D199F314-3C2F-4B0C-936E-97A6B19A20D7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{7BF75907-B022-47A1-8A1D-505A801343AD}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3714,19 +3742,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000033-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000034-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="51"/>
+              <c:idx val="52"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CD45677-8F92-436A-AC4F-B51FD67F3CB1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{A166D5A2-C848-4C80-AB41-20C04FF150E1}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3747,19 +3775,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000034-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000035-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="52"/>
+              <c:idx val="53"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{484A8544-9404-4019-9161-B6B9C1E68B62}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CD7C5E36-D4FA-43F4-9178-FF4BD1AF40C9}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3780,19 +3808,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000035-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000036-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="53"/>
+              <c:idx val="54"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0D72826-1D71-44F7-9864-C3E9FE81E438}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{52AE2F6C-A5CD-4D1B-91FE-8C6909A9AAF5}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3813,19 +3841,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000036-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000037-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="54"/>
+              <c:idx val="55"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{361018DE-E223-4F88-87EE-8104EAB1DA77}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{13DC6B88-622D-4C8A-8A72-5E893884E576}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3846,19 +3874,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000037-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000038-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="55"/>
+              <c:idx val="56"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41A43FC1-AA16-4B64-A957-36C6D87A455D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8CEBCAED-78C0-480A-B98E-F1A0C9E06A0E}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3879,19 +3907,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000038-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000039-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="56"/>
+              <c:idx val="57"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C15DA2BC-BE80-4839-93A8-5A33B7044216}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0837634A-BB8C-4581-A20B-A1BA1609D1F3}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3912,19 +3940,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000039-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000003A-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="57"/>
+              <c:idx val="58"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6ADEC144-BA58-4D67-BB99-AB9702E8C309}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D0FABB00-5839-4D62-9AA7-6B24CB94A6A9}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3945,19 +3973,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003A-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000003B-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="58"/>
+              <c:idx val="59"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BC7D037-7892-49A9-811D-6592F1BE2742}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{C04277B5-7DDC-45CC-95C6-82E59A6C2EA6}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3978,19 +4006,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003B-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000003C-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="59"/>
+              <c:idx val="60"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E780CBC-39FA-4576-A271-E39C6F0A013B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2806DF4E-BB69-4586-915D-06293D9A5D7A}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4011,19 +4039,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003C-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000003D-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="60"/>
+              <c:idx val="61"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA9260FA-ADFF-4C9B-A7BE-F57E97667F0F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0E376EE4-66C3-4E2A-94AE-CC3B4411EED8}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4044,19 +4072,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003D-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000003E-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="61"/>
+              <c:idx val="62"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EB5176F-15FB-4583-99D6-3832F35C4174}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2CA0CCD9-AF05-4C84-8056-20796E73BFB5}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4077,19 +4105,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003E-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000003F-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="62"/>
+              <c:idx val="63"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4D8A8A5-737A-4360-B86F-ADF72C94E3D1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{EA40DFD1-1246-45C5-AE12-848BD5121175}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4110,19 +4138,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003F-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000040-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="63"/>
+              <c:idx val="64"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2954FEDB-056C-4053-BB79-A13F8AECC8F0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{FEC4AB9B-4DDF-4065-823E-8D180A3C6E13}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4143,19 +4171,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000040-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000041-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="64"/>
+              <c:idx val="65"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEC483C5-418F-4368-9C9C-636BACC74579}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5C5A9AFE-CE10-42B9-9C7A-80CCEAD7AAE2}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4176,19 +4204,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000041-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000042-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="65"/>
+              <c:idx val="66"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72C6D113-A644-4E7F-A16E-1A40E41ED2FA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1E8C6EDF-90AA-4E29-A532-2AD49BA4C4B8}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4209,19 +4237,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000042-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000043-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="66"/>
+              <c:idx val="67"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAADDED1-0573-429A-99D7-CC05C94162B8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E18B1124-08BA-405C-AD1F-074A72E81D7C}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4242,19 +4270,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000043-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000044-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="67"/>
+              <c:idx val="68"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1251918-3683-45C4-90E0-E2F05C42E6E4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CF2EF2C6-EF3A-4BAC-9814-CFC27F020D0A}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4275,19 +4303,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000044-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000045-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="68"/>
+              <c:idx val="69"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9228A3A-FAB9-43B1-9044-327CFE7EC35A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D9D20BD7-89B7-409B-83B1-9CAA217B822F}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4308,19 +4336,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000045-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000046-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="69"/>
+              <c:idx val="70"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51B3899C-1769-4E36-885C-8A42BAF4BC80}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1AD1D350-0B5B-416D-ACB6-8BC4F286AD56}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4341,19 +4369,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000046-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000047-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="70"/>
+              <c:idx val="71"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3E46CDB-FF28-4057-AED0-D9F962DF1920}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{DBCE82FD-C7CC-4638-80B7-3F57CDAD8261}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4374,19 +4402,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000047-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000048-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="71"/>
+              <c:idx val="72"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEE7A4EF-6D17-43FF-BAA8-CED5033E881B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B827848C-FABE-4DCB-A385-9901AF1E6F9A}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4407,19 +4435,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000048-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000049-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="72"/>
+              <c:idx val="73"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A045AA6-8526-4897-994C-0D298E943583}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{DC918AEF-6619-4054-BB1C-5E43ECF35155}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4440,19 +4468,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000049-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000004A-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="73"/>
+              <c:idx val="74"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9CEC879-6FD6-4B70-BA5C-C7AB9FAA5753}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D9884B83-93E6-4BF8-B39F-D36EAA564506}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4473,19 +4501,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004A-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000004B-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="74"/>
+              <c:idx val="75"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A075673-94A3-43CE-9E37-505CBEDBB13A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{A39248E2-E68A-4772-8096-3831FD5C3EC7}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4506,19 +4534,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004B-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000004C-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="75"/>
+              <c:idx val="76"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{656AE0AB-AC52-480C-BFD6-F27BD49DC2FD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1374DEF3-3B29-4E0B-B9ED-6D582CDA8BD9}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4539,19 +4567,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004C-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000004D-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="76"/>
+              <c:idx val="77"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B328125-FE1E-41F5-80B2-F577765AF44D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6DF83A7F-4885-4A9C-B08F-C69F23872E5C}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4572,19 +4600,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004D-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000004E-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="77"/>
+              <c:idx val="78"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{672981AE-E9E3-4ACF-8FBF-21FC73F99B4B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5801BCC0-CE40-4460-903E-FCC9C0E3DC7E}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4605,19 +4633,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004E-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{0000004F-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="78"/>
+              <c:idx val="79"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34886192-775C-4B10-84D6-4DEFC9FFB2DD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E42A85C1-2124-4CF8-A2D2-13C410097064}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4638,19 +4666,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004F-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000050-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="79"/>
+              <c:idx val="80"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EDB3706-E91C-487D-BCCA-1EE7EE95B849}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0CE2BCED-BE77-4081-96B2-BD6D942E1CCB}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4671,19 +4699,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000050-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000051-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="80"/>
+              <c:idx val="81"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A76FAE6F-D9D9-4F4D-8C80-A1B7DA7958E4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{4E451360-AFD2-406C-8CB8-4C9264B00CFC}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4704,19 +4732,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000051-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000052-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="81"/>
+              <c:idx val="82"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8FE38C6-BD47-4207-B4BF-15F4B0C6A6FF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5CE80FD1-0F0D-475D-9FCA-A4840F8DDD5D}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4737,19 +4765,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000052-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000053-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="82"/>
+              <c:idx val="83"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8112EAAF-CDC1-447A-8C50-D9F2B588A266}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{DC138939-47EE-4033-9F82-03A29EA1E9B1}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4770,19 +4798,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000053-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000054-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="83"/>
+              <c:idx val="84"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A381344D-3A4D-4182-833F-8DF87FE17937}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{01C67CA9-E04F-4D5E-AFEE-B0B2F1FE9A2F}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4803,19 +4831,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000054-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000055-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="84"/>
+              <c:idx val="85"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34AB555C-2E79-4052-A491-1F0F1D3706E5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{48EAE1F3-1119-4589-954B-98D9ABA70142}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4836,19 +4864,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000055-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000056-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="85"/>
+              <c:idx val="86"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40E69339-684D-4388-B0DE-F6085C95AE20}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6ECD5785-E05A-47A6-8331-1EC37B47844E}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4869,19 +4897,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000056-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000057-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="86"/>
+              <c:idx val="87"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35937262-4904-4D73-9530-B3B6FC5211B9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E8DC9872-2652-4311-994F-A1641120C1C2}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4902,19 +4930,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000057-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000058-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="87"/>
+              <c:idx val="88"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B8E0394-FB33-40AD-BABA-65953F9E8EB9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{32DB764E-08DE-4D04-B249-989AA8D83B5D}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4935,19 +4963,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000058-8B7B-40C2-B301-DD7C8C203DC7}"/>
+                  <c16:uniqueId val="{00000059-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="88"/>
+              <c:idx val="89"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA382968-ED37-4AB1-A982-DD78A2ABB61B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D3377657-E797-4D06-AC8A-39065D37958D}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4968,39 +4996,6 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000059-8B7B-40C2-B301-DD7C8C203DC7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="89"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{63D8CCDC-A2B5-4D05-861C-3CD50E4B7D6C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005A-8B7B-40C2-B301-DD7C8C203DC7}"/>
                 </c:ext>
               </c:extLst>
@@ -5012,8 +5007,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0712D5DE-3208-4301-9D2B-78AD91157523}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{83CE35A5-ADF6-4492-A2B2-4CCB0CA1CE98}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -7518,284 +7513,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>1</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>5</v>
-          </cell>
-          <cell r="E2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>9</v>
-          </cell>
-          <cell r="E3">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>2</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>3</v>
-          </cell>
-          <cell r="E4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>2</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>3</v>
-          </cell>
-          <cell r="E5">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>2</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>6</v>
-          </cell>
-          <cell r="E6">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>2</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>7</v>
-          </cell>
-          <cell r="E7">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>2</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>8</v>
-          </cell>
-          <cell r="E8">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>2</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>8</v>
-          </cell>
-          <cell r="E9">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>3</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="E10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>3</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="E11">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>3</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="E12">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>3</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="E13">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>3</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>2</v>
-          </cell>
-          <cell r="E14">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>3</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>5</v>
-          </cell>
-          <cell r="E15">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>3</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>6</v>
-          </cell>
-          <cell r="E16">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>3</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>7</v>
-          </cell>
-          <cell r="E17">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>4</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="E18">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>4</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="E19">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>4</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>4</v>
-          </cell>
-          <cell r="E20">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>4</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>5</v>
-          </cell>
-          <cell r="E21">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>4</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>8</v>
-          </cell>
-          <cell r="E22">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>6</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="E23">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>6</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="E24">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>6</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="E25">
-            <v>3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F5508E1-EC4B-497F-851E-F32319211298}" name="TablaDatos" displayName="TablaDatos" ref="J1:S11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <tableColumns count="10">
@@ -7823,19 +7540,19 @@
     <tableColumn id="1" xr3:uid="{56B0A2B3-964E-4D79-BCB1-B49AEE48E5FF}" name="Tallo">
       <calculatedColumnFormula>TRUNC(G2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{AA655821-94A1-4053-AEE2-EB64D2D32472}" name="Hoja" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{AA655821-94A1-4053-AEE2-EB64D2D32472}" name="Hoja" dataDxfId="5">
       <calculatedColumnFormula>LEFT(RIGHT(G2,LEN(G2)-FIND(",",G2,1))&amp;"0",2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9FC97DAC-FEA1-4529-9621-6E42841A1578}" name="Posición" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{9FC97DAC-FEA1-4529-9621-6E42841A1578}" name="Posición" dataDxfId="4">
       <calculatedColumnFormula>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{17E0BBA4-BD80-4F99-814A-A6591BB0944E}" name="Tabla4" displayName="Tabla4" ref="U1:W92" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{17E0BBA4-BD80-4F99-814A-A6591BB0944E}" name="Tabla4" displayName="Tabla4" ref="U1:W92" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U2:W92">
     <sortCondition ref="U2:U92"/>
     <sortCondition ref="V2:V92"/>
@@ -7843,11 +7560,11 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E171CB8C-0293-4AC1-BCE9-F0DFE0673E80}" name="Tallo"/>
     <tableColumn id="2" xr3:uid="{1D8B2172-9CCD-4607-B244-745D39BB1024}" name="Hoja"/>
-    <tableColumn id="3" xr3:uid="{236250E8-BE2F-44D1-92AB-860CD1AE6BE8}" name="Posición" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{236250E8-BE2F-44D1-92AB-860CD1AE6BE8}" name="Posición" dataDxfId="0">
       <calculatedColumnFormula>COUNTIF(INDEX(Tabla4[Tallo],1):Tabla4[[#This Row],[Tallo]],Tabla4[[#This Row],[Tallo]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -8562,18 +8279,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="8" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" customWidth="1"/>
+    <col min="21" max="21" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -8586,50 +8309,50 @@
       <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8642,18 +8365,18 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <f>TRUNC(G2)</f>
+        <f t="shared" ref="C2:C33" si="0">TRUNC(G2)</f>
         <v>5</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D33" si="0">LEFT(RIGHT(G2,LEN(G2)-FIND(",",G2,1))&amp;"0",2)</f>
+        <f t="shared" ref="D2:D33" si="1">LEFT(RIGHT(G2,LEN(G2)-FIND(",",G2,1))&amp;"0",2)</f>
         <v>03</v>
       </c>
       <c r="E2">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G2" s="14" cm="1">
+      <c r="G2" s="12" cm="1">
         <f t="array" ref="G2:G92">_xlfn.FILTERXML("&lt;lista&gt;&lt;valor&gt;"&amp;_xlfn.TEXTJOIN("&lt;/valor&gt;&lt;valor&gt;",TRUE,TablaDatos[])&amp;"&lt;/valor&gt;&lt;/lista&gt;","//valor")</f>
         <v>5.03</v>
       </c>
@@ -8665,43 +8388,43 @@
         <f>COUNTA(TablaDatos[]) &amp; " →"</f>
         <v>91 →</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="10">
         <v>5.03</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="10">
         <v>7.32</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="10">
         <v>9.02</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="10">
         <v>11.07</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="10">
         <v>13.32</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="10">
         <v>15.07</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="10">
         <v>16.5</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="10">
         <v>18.32</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="10">
         <v>20.07</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="10">
         <v>22.38</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="9">
         <v>5</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="10">
+      <c r="W2" s="9">
         <f>COUNTIF(INDEX(Tabla4[Tallo],1):Tabla4[[#This Row],[Tallo]],Tabla4[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
@@ -8715,50 +8438,50 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>TRUNC(G3)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="E3">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>7.32</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="12">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="10">
         <v>6.02</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="10">
         <v>7.37</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="10">
         <v>9.07</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <v>11.32</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="10">
         <v>13.37</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="10">
         <v>15.2</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="10">
         <v>17.02</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="10">
         <v>18.37</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="10">
         <v>20.2</v>
       </c>
-      <c r="S3" s="12"/>
+      <c r="S3" s="10"/>
       <c r="U3">
         <v>6</v>
       </c>
@@ -8772,48 +8495,48 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C4">
-        <f>TRUNC(G4)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="E4">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <v>9.02</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="10">
         <v>6.18</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="10">
         <v>7.5</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="10">
         <v>9.24</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="10">
         <v>11.37</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <v>13.5</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="10">
         <v>15.32</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="10">
         <v>17.07</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="10">
         <v>18.5</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="10">
         <v>20.32</v>
       </c>
-      <c r="S4" s="12"/>
+      <c r="S4" s="10"/>
       <c r="U4">
         <v>6</v>
       </c>
@@ -8827,48 +8550,48 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C5">
-        <f>TRUNC(G5)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="E5">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>11.07</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>6.37</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>8.02</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="10">
         <v>9.32</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>12.02</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>14.02</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>15.37</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="10">
         <v>17.2</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="10">
         <v>19.02</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="10">
         <v>20.37</v>
       </c>
-      <c r="S5" s="12"/>
+      <c r="S5" s="10"/>
       <c r="U5">
         <v>6</v>
       </c>
@@ -8882,48 +8605,48 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C6">
-        <f>TRUNC(G6)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="E6">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>13.32</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="10">
         <v>6.48</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="10">
         <v>8.0500000000000007</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="10">
         <v>9.3699999999999992</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <v>12.07</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="10">
         <v>14.07</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="10">
         <v>15.5</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="10">
         <v>17.32</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="10">
         <v>19.07</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="10">
         <v>20.5</v>
       </c>
-      <c r="S6" s="12"/>
+      <c r="S6" s="10"/>
       <c r="U6">
         <v>6</v>
       </c>
@@ -8937,48 +8660,48 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C7">
-        <f>TRUNC(G7)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="E7">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>15.07</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <v>6.55</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="10">
         <v>10.02</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="10">
         <v>12.32</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="10">
         <v>14.2</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="10">
         <v>16.02</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="10">
         <v>17.37</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="10">
         <v>19.2</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="10">
         <v>21.02</v>
       </c>
-      <c r="S7" s="12"/>
+      <c r="S7" s="10"/>
       <c r="U7">
         <v>6</v>
       </c>
@@ -8992,48 +8715,48 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C8">
-        <f>TRUNC(G8)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E8">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <v>16.5</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <v>7.02</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="10">
         <v>8.24</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="10">
         <v>10.07</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="10">
         <v>12.37</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <v>14.32</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="10">
         <v>16.07</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="10">
         <v>17.5</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="10">
         <v>19.32</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="10">
         <v>21.07</v>
       </c>
-      <c r="S8" s="12"/>
+      <c r="S8" s="10"/>
       <c r="U8">
         <v>7</v>
       </c>
@@ -9047,48 +8770,48 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C9">
-        <f>TRUNC(G9)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="E9">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>18.32</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <v>7.07</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="10">
         <v>8.32</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="10">
         <v>10.32</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="10">
         <v>13.02</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="10">
         <v>14.37</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="10">
         <v>16.2</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="10">
         <v>18.02</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="10">
         <v>19.37</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="10">
         <v>21.2</v>
       </c>
-      <c r="S9" s="12"/>
+      <c r="S9" s="10"/>
       <c r="U9">
         <v>7</v>
       </c>
@@ -9102,48 +8825,48 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C10">
-        <f>TRUNC(G10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="E10">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>20.07</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <v>7.2</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <v>8.3699999999999992</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="10">
         <v>10.37</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="10">
         <v>13.07</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="10">
         <v>14.5</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="10">
         <v>16.32</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="10">
         <v>18.07</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="10">
         <v>19.5</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="10">
         <v>21.32</v>
       </c>
-      <c r="S10" s="12"/>
+      <c r="S10" s="10"/>
       <c r="U10">
         <v>7</v>
       </c>
@@ -9157,48 +8880,48 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11">
-        <f>TRUNC(G11)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="E11">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>22.38</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <v>7.25</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <v>8.51</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="10">
         <v>11.02</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="10">
         <v>13.2</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="10">
         <v>15.02</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="10">
         <v>16.37</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="10">
         <v>18.2</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="10">
         <v>20.02</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="10">
         <v>21.37</v>
       </c>
-      <c r="S11" s="12"/>
+      <c r="S11" s="10"/>
       <c r="U11">
         <v>7</v>
       </c>
@@ -9212,18 +8935,18 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C12">
-        <f>TRUNC(G12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="E12">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <v>6.02</v>
       </c>
       <c r="U12">
@@ -9239,18 +8962,18 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C13">
-        <f>TRUNC(G13)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="E13">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>7.37</v>
       </c>
       <c r="U13">
@@ -9266,18 +8989,18 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C14">
-        <f>TRUNC(G14)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="E14">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="12">
         <v>9.07</v>
       </c>
       <c r="U14">
@@ -9293,18 +9016,18 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15">
-        <f>TRUNC(G15)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="E15">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>11.32</v>
       </c>
       <c r="U15">
@@ -9320,18 +9043,18 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C16">
-        <f>TRUNC(G16)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="E16">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <v>13.37</v>
       </c>
       <c r="U16">
@@ -9347,18 +9070,18 @@
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C17">
-        <f>TRUNC(G17)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="E17">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>15.2</v>
       </c>
       <c r="U17">
@@ -9374,18 +9097,18 @@
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C18">
-        <f>TRUNC(G18)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="E18">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <v>17.02</v>
       </c>
       <c r="U18">
@@ -9401,18 +9124,18 @@
     </row>
     <row r="19" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C19">
-        <f>TRUNC(G19)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="E19">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <v>18.37</v>
       </c>
       <c r="U19">
@@ -9428,18 +9151,18 @@
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C20">
-        <f>TRUNC(G20)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="E20">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <v>20.2</v>
       </c>
       <c r="U20">
@@ -9455,18 +9178,18 @@
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C21">
-        <f>TRUNC(G21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="E21">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>6.18</v>
       </c>
       <c r="U21">
@@ -9482,18 +9205,18 @@
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C22">
-        <f>TRUNC(G22)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E22">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="12">
         <v>7.5</v>
       </c>
       <c r="U22">
@@ -9509,18 +9232,18 @@
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C23">
-        <f>TRUNC(G23)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="E23">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="12">
         <v>9.24</v>
       </c>
       <c r="U23">
@@ -9536,18 +9259,18 @@
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C24">
-        <f>TRUNC(G24)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="E24">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="12">
         <v>11.37</v>
       </c>
       <c r="U24">
@@ -9563,18 +9286,18 @@
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C25">
-        <f>TRUNC(G25)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E25">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>13.5</v>
       </c>
       <c r="U25">
@@ -9590,18 +9313,18 @@
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C26">
-        <f>TRUNC(G26)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="E26">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="12">
         <v>15.32</v>
       </c>
       <c r="U26">
@@ -9617,18 +9340,18 @@
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C27">
-        <f>TRUNC(G27)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="E27">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="12">
         <v>17.07</v>
       </c>
       <c r="U27">
@@ -9644,18 +9367,18 @@
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C28">
-        <f>TRUNC(G28)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E28">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="12">
         <v>18.5</v>
       </c>
       <c r="U28">
@@ -9671,18 +9394,18 @@
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C29">
-        <f>TRUNC(G29)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="E29">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="12">
         <v>20.32</v>
       </c>
       <c r="U29">
@@ -9698,18 +9421,18 @@
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C30">
-        <f>TRUNC(G30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="E30">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="12">
         <v>6.37</v>
       </c>
       <c r="U30">
@@ -9725,18 +9448,18 @@
     </row>
     <row r="31" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C31">
-        <f>TRUNC(G31)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="E31">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="12">
         <v>8.02</v>
       </c>
       <c r="U31">
@@ -9752,18 +9475,18 @@
     </row>
     <row r="32" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C32">
-        <f>TRUNC(G32)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="E32">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="12">
         <v>9.32</v>
       </c>
       <c r="U32">
@@ -9779,18 +9502,18 @@
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C33">
-        <f>TRUNC(G33)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="E33">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="12">
         <v>12.02</v>
       </c>
       <c r="U33">
@@ -9806,18 +9529,18 @@
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C34">
-        <f>TRUNC(G34)</f>
+        <f t="shared" ref="C34:C65" si="2">TRUNC(G34)</f>
         <v>14</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D65" si="1">LEFT(RIGHT(G34,LEN(G34)-FIND(",",G34,1))&amp;"0",2)</f>
+        <f t="shared" ref="D34:D65" si="3">LEFT(RIGHT(G34,LEN(G34)-FIND(",",G34,1))&amp;"0",2)</f>
         <v>02</v>
       </c>
       <c r="E34">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="12">
         <v>14.02</v>
       </c>
       <c r="U34">
@@ -9833,18 +9556,18 @@
     </row>
     <row r="35" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C35">
-        <f>TRUNC(G35)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="E35">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="12">
         <v>15.37</v>
       </c>
       <c r="U35">
@@ -9860,18 +9583,18 @@
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C36">
-        <f>TRUNC(G36)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E36">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="12">
         <v>17.2</v>
       </c>
       <c r="U36">
@@ -9887,18 +9610,18 @@
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C37">
-        <f>TRUNC(G37)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="E37">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="12">
         <v>19.02</v>
       </c>
       <c r="U37">
@@ -9914,18 +9637,18 @@
     </row>
     <row r="38" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C38">
-        <f>TRUNC(G38)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="E38">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="12">
         <v>20.37</v>
       </c>
       <c r="U38">
@@ -9941,18 +9664,18 @@
     </row>
     <row r="39" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C39">
-        <f>TRUNC(G39)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="E39">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="12">
         <v>6.48</v>
       </c>
       <c r="U39">
@@ -9968,18 +9691,18 @@
     </row>
     <row r="40" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C40">
-        <f>TRUNC(G40)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="E40">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="12">
         <v>8.0500000000000007</v>
       </c>
       <c r="U40">
@@ -9995,18 +9718,18 @@
     </row>
     <row r="41" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C41">
-        <f>TRUNC(G41)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="E41">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>5</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="12">
         <v>9.3699999999999992</v>
       </c>
       <c r="U41">
@@ -10022,18 +9745,18 @@
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C42">
-        <f>TRUNC(G42)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="E42">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="12">
         <v>12.07</v>
       </c>
       <c r="U42">
@@ -10049,18 +9772,18 @@
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C43">
-        <f>TRUNC(G43)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="E43">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="12">
         <v>14.07</v>
       </c>
       <c r="U43">
@@ -10076,18 +9799,18 @@
     </row>
     <row r="44" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C44">
-        <f>TRUNC(G44)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E44">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>5</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="12">
         <v>15.5</v>
       </c>
       <c r="U44">
@@ -10103,18 +9826,18 @@
     </row>
     <row r="45" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C45">
-        <f>TRUNC(G45)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="E45">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="12">
         <v>17.32</v>
       </c>
       <c r="U45">
@@ -10130,18 +9853,18 @@
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C46">
-        <f>TRUNC(G46)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="E46">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="12">
         <v>19.07</v>
       </c>
       <c r="U46">
@@ -10157,18 +9880,18 @@
     </row>
     <row r="47" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C47">
-        <f>TRUNC(G47)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E47">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>5</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="12">
         <v>20.5</v>
       </c>
       <c r="U47">
@@ -10184,18 +9907,18 @@
     </row>
     <row r="48" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C48">
-        <f>TRUNC(G48)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="E48">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>5</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="12">
         <v>6.55</v>
       </c>
       <c r="U48">
@@ -10211,18 +9934,18 @@
     </row>
     <row r="49" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C49">
-        <f>TRUNC(G49)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E49">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="12">
         <v>8.1999999999999993</v>
       </c>
       <c r="U49">
@@ -10238,18 +9961,18 @@
     </row>
     <row r="50" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C50">
-        <f>TRUNC(G50)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="E50">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="12">
         <v>10.02</v>
       </c>
       <c r="U50">
@@ -10265,18 +9988,18 @@
     </row>
     <row r="51" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C51">
-        <f>TRUNC(G51)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="E51">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="12">
         <v>12.32</v>
       </c>
       <c r="U51">
@@ -10292,18 +10015,18 @@
     </row>
     <row r="52" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C52">
-        <f>TRUNC(G52)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E52">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="12">
         <v>14.2</v>
       </c>
       <c r="U52">
@@ -10319,18 +10042,18 @@
     </row>
     <row r="53" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C53">
-        <f>TRUNC(G53)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="E53">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="12">
         <v>16.02</v>
       </c>
       <c r="U53">
@@ -10346,18 +10069,18 @@
     </row>
     <row r="54" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C54">
-        <f>TRUNC(G54)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="E54">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>5</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="12">
         <v>17.37</v>
       </c>
       <c r="U54">
@@ -10373,18 +10096,18 @@
     </row>
     <row r="55" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C55">
-        <f>TRUNC(G55)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E55">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="12">
         <v>19.2</v>
       </c>
       <c r="U55">
@@ -10400,18 +10123,18 @@
     </row>
     <row r="56" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f>TRUNC(G56)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="E56">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>1</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="12">
         <v>21.02</v>
       </c>
       <c r="U56">
@@ -10427,18 +10150,18 @@
     </row>
     <row r="57" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C57">
-        <f>TRUNC(G57)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="E57">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="12">
         <v>7.02</v>
       </c>
       <c r="U57">
@@ -10454,18 +10177,18 @@
     </row>
     <row r="58" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C58">
-        <f>TRUNC(G58)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="E58">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="12">
         <v>8.24</v>
       </c>
       <c r="U58">
@@ -10481,18 +10204,18 @@
     </row>
     <row r="59" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C59">
-        <f>TRUNC(G59)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="E59">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="12">
         <v>10.07</v>
       </c>
       <c r="U59">
@@ -10508,18 +10231,18 @@
     </row>
     <row r="60" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C60">
-        <f>TRUNC(G60)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="E60">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="12">
         <v>12.37</v>
       </c>
       <c r="U60">
@@ -10535,18 +10258,18 @@
     </row>
     <row r="61" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C61">
-        <f>TRUNC(G61)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="E61">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="12">
         <v>14.32</v>
       </c>
       <c r="U61">
@@ -10562,18 +10285,18 @@
     </row>
     <row r="62" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C62">
-        <f>TRUNC(G62)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="E62">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="12">
         <v>16.07</v>
       </c>
       <c r="U62">
@@ -10589,18 +10312,18 @@
     </row>
     <row r="63" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C63">
-        <f>TRUNC(G63)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E63">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>6</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="12">
         <v>17.5</v>
       </c>
       <c r="U63">
@@ -10616,18 +10339,18 @@
     </row>
     <row r="64" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C64">
-        <f>TRUNC(G64)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="E64">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="12">
         <v>19.32</v>
       </c>
       <c r="U64">
@@ -10643,18 +10366,18 @@
     </row>
     <row r="65" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C65">
-        <f>TRUNC(G65)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="E65">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>2</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="12">
         <v>21.07</v>
       </c>
       <c r="U65">
@@ -10670,18 +10393,18 @@
     </row>
     <row r="66" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C66">
-        <f>TRUNC(G66)</f>
+        <f t="shared" ref="C66:C92" si="4">TRUNC(G66)</f>
         <v>7</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66:D92" si="2">LEFT(RIGHT(G66,LEN(G66)-FIND(",",G66,1))&amp;"0",2)</f>
+        <f t="shared" ref="D66:D92" si="5">LEFT(RIGHT(G66,LEN(G66)-FIND(",",G66,1))&amp;"0",2)</f>
         <v>07</v>
       </c>
       <c r="E66">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>5</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="12">
         <v>7.07</v>
       </c>
       <c r="U66">
@@ -10697,18 +10420,18 @@
     </row>
     <row r="67" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C67">
-        <f>TRUNC(G67)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="E67">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>5</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="12">
         <v>8.32</v>
       </c>
       <c r="U67">
@@ -10724,18 +10447,18 @@
     </row>
     <row r="68" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C68">
-        <f>TRUNC(G68)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="E68">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="12">
         <v>10.32</v>
       </c>
       <c r="U68">
@@ -10751,18 +10474,18 @@
     </row>
     <row r="69" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C69">
-        <f>TRUNC(G69)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>02</v>
       </c>
       <c r="E69">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="12">
         <v>13.02</v>
       </c>
       <c r="U69">
@@ -10778,18 +10501,18 @@
     </row>
     <row r="70" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C70">
-        <f>TRUNC(G70)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="E70">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>5</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="12">
         <v>14.37</v>
       </c>
       <c r="U70">
@@ -10805,18 +10528,18 @@
     </row>
     <row r="71" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C71">
-        <f>TRUNC(G71)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E71">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G71" s="12">
         <v>16.2</v>
       </c>
       <c r="U71">
@@ -10832,18 +10555,18 @@
     </row>
     <row r="72" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C72">
-        <f>TRUNC(G72)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>02</v>
       </c>
       <c r="E72">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="12">
         <v>18.02</v>
       </c>
       <c r="U72">
@@ -10859,18 +10582,18 @@
     </row>
     <row r="73" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C73">
-        <f>TRUNC(G73)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="E73">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>5</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G73" s="12">
         <v>19.37</v>
       </c>
       <c r="U73">
@@ -10886,18 +10609,18 @@
     </row>
     <row r="74" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C74">
-        <f>TRUNC(G74)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E74">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>3</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="12">
         <v>21.2</v>
       </c>
       <c r="U74">
@@ -10913,18 +10636,18 @@
     </row>
     <row r="75" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C75">
-        <f>TRUNC(G75)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E75">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>6</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G75" s="12">
         <v>7.2</v>
       </c>
       <c r="U75">
@@ -10940,18 +10663,18 @@
     </row>
     <row r="76" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C76">
-        <f>TRUNC(G76)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="E76">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>6</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="12">
         <v>8.3699999999999992</v>
       </c>
       <c r="U76">
@@ -10967,18 +10690,18 @@
     </row>
     <row r="77" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C77">
-        <f>TRUNC(G77)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="E77">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="12">
         <v>10.37</v>
       </c>
       <c r="U77">
@@ -10994,18 +10717,18 @@
     </row>
     <row r="78" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C78">
-        <f>TRUNC(G78)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>07</v>
       </c>
       <c r="E78">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>5</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="12">
         <v>13.07</v>
       </c>
       <c r="U78">
@@ -11021,18 +10744,18 @@
     </row>
     <row r="79" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C79">
-        <f>TRUNC(G79)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E79">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>6</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G79" s="12">
         <v>14.5</v>
       </c>
       <c r="U79">
@@ -11048,18 +10771,18 @@
     </row>
     <row r="80" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C80">
-        <f>TRUNC(G80)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="E80">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>5</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="12">
         <v>16.32</v>
       </c>
       <c r="U80">
@@ -11075,18 +10798,18 @@
     </row>
     <row r="81" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C81">
-        <f>TRUNC(G81)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>07</v>
       </c>
       <c r="E81">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>5</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G81" s="12">
         <v>18.07</v>
       </c>
       <c r="U81">
@@ -11102,18 +10825,18 @@
     </row>
     <row r="82" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C82">
-        <f>TRUNC(G82)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E82">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>6</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G82" s="12">
         <v>19.5</v>
       </c>
       <c r="U82">
@@ -11129,18 +10852,18 @@
     </row>
     <row r="83" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C83">
-        <f>TRUNC(G83)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="E83">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G83" s="12">
         <v>21.32</v>
       </c>
       <c r="U83">
@@ -11156,18 +10879,18 @@
     </row>
     <row r="84" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C84">
-        <f>TRUNC(G84)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E84">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>7</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G84" s="12">
         <v>7.25</v>
       </c>
       <c r="U84">
@@ -11183,18 +10906,18 @@
     </row>
     <row r="85" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C85">
-        <f>TRUNC(G85)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="E85">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>7</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G85" s="12">
         <v>8.51</v>
       </c>
       <c r="U85">
@@ -11210,18 +10933,18 @@
     </row>
     <row r="86" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C86">
-        <f>TRUNC(G86)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>02</v>
       </c>
       <c r="E86">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>4</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G86" s="12">
         <v>11.02</v>
       </c>
       <c r="U86">
@@ -11237,18 +10960,18 @@
     </row>
     <row r="87" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C87">
-        <f>TRUNC(G87)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E87">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>6</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G87" s="12">
         <v>13.2</v>
       </c>
       <c r="U87">
@@ -11264,18 +10987,18 @@
     </row>
     <row r="88" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C88">
-        <f>TRUNC(G88)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>02</v>
       </c>
       <c r="E88">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>6</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G88" s="12">
         <v>15.02</v>
       </c>
       <c r="U88">
@@ -11291,18 +11014,18 @@
     </row>
     <row r="89" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C89">
-        <f>TRUNC(G89)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="E89">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>6</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G89" s="12">
         <v>16.37</v>
       </c>
       <c r="U89">
@@ -11318,18 +11041,18 @@
     </row>
     <row r="90" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C90">
-        <f>TRUNC(G90)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E90">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>6</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="12">
         <v>18.2</v>
       </c>
       <c r="U90">
@@ -11345,18 +11068,18 @@
     </row>
     <row r="91" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C91">
-        <f>TRUNC(G91)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>02</v>
       </c>
       <c r="E91">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>6</v>
       </c>
-      <c r="G91" s="14">
+      <c r="G91" s="12">
         <v>20.02</v>
       </c>
       <c r="U91">
@@ -11372,18 +11095,18 @@
     </row>
     <row r="92" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C92">
-        <f>TRUNC(G92)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="E92">
         <f>COUNTIF(INDEX(Tabla3[Tallo],1):Tabla3[[#This Row],[Tallo]],Tabla3[[#This Row],[Tallo]])</f>
         <v>5</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G92" s="12">
         <v>21.37</v>
       </c>
       <c r="U92">
